--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -741,28 +745,31 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -770,28 +777,31 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,28 +964,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>0</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -967,28 +994,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2700</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,28 +1042,29 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1038,28 +1072,31 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2700</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,28 +1136,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1125,8 +1168,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,8 +1191,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,28 +1232,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2600</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1212,28 +1264,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2600</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1241,8 +1296,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,28 +1424,31 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1386,28 +1456,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2600</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1415,8 +1488,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,28 +1520,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2600</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1473,42 +1552,48 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,22 +1619,23 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>9200</v>
       </c>
       <c r="F41" s="3">
         <v>9200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>9200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1562,20 +1649,23 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E42" s="3">
         <v>9800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,23 +1681,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,23 +1745,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1678,23 +1777,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1721,8 +1826,8 @@
       <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,13 +1853,13 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1765,23 +1873,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
       </c>
       <c r="F49" s="3">
+        <v>700</v>
+      </c>
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,23 +1969,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2033,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E54" s="3">
         <v>14400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,23 +2095,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,23 +2157,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,23 +2189,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2381,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2555,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E72" s="3">
         <v>12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2683,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E76" s="3">
         <v>13300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10300</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,62 +2747,68 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2600</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2621,8 +2816,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,28 +2832,29 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2859,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
@@ -2867,8 +3088,8 @@
       <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
-        <v>300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,28 +3338,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>100</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3124,13 +3370,16 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
@@ -3142,10 +3391,10 @@
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>0</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -1626,7 +1626,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24000</v>
+        <v>18200</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
@@ -1658,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14400</v>
+        <v>17500</v>
       </c>
       <c r="E42" s="3">
         <v>9800</v>
@@ -1690,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
@@ -1753,8 +1753,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E8" s="3">
         <v>17400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -748,31 +752,34 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -780,31 +787,34 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E10" s="3">
         <v>14800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4900</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,31 +991,32 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E17" s="3">
         <v>15800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -997,31 +1024,34 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1029,8 +1059,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,31 +1076,32 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1075,31 +1109,34 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2400</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>500</v>
+        <v>2100</v>
       </c>
       <c r="F21" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>2700</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,31 +1179,34 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1171,8 +1214,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,8 +1240,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,31 +1284,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2600</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1267,31 +1319,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2600</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1354,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,31 +1494,34 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1459,31 +1529,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2600</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1491,8 +1564,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,31 +1599,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2600</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1555,45 +1634,51 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,25 +1706,26 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E41" s="3">
         <v>18200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>9200</v>
       </c>
       <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>9200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1652,23 +1739,26 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E42" s="3">
         <v>17500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>9800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1700</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1684,26 +1774,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,26 +1844,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1780,26 +1879,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E46" s="3">
         <v>39000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1914,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1829,8 +1934,8 @@
       <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -1844,25 +1949,28 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1876,26 +1984,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
-      </c>
-      <c r="E49" s="3">
-        <v>700</v>
       </c>
       <c r="F49" s="3">
         <v>700</v>
       </c>
       <c r="G49" s="3">
+        <v>700</v>
+      </c>
+      <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2019,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,26 +2089,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,26 +2159,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E54" s="3">
         <v>41100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,26 +2226,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,8 +2259,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,26 +2294,29 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,26 +2329,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,8 +2364,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,26 +2539,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,26 +2729,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E72" s="3">
         <v>13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,26 +2869,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E76" s="3">
         <v>33600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,68 +2939,74 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2600</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2819,8 +3014,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,25 +3031,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>300</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,29 +3239,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>8100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>200</v>
+        <v>-1500</v>
       </c>
       <c r="F89" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G89" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>3500</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3274,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,29 +3291,30 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F91" s="3">
+        <v>300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,29 +3394,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-11800</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>-10300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>300</v>
-      </c>
-      <c r="H94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1500</v>
       </c>
-      <c r="I94" s="3">
-        <v>-200</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,25 +3584,28 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>18000</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-300</v>
+        <v>18900</v>
       </c>
       <c r="F100" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
+        <v>600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -3373,29 +3619,32 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>500</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3405,29 +3654,32 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>14900</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-500</v>
+        <v>7700</v>
       </c>
       <c r="F102" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3435,6 +3687,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E8" s="3">
         <v>24500</v>
       </c>
-      <c r="E8" s="3">
-        <v>17400</v>
-      </c>
       <c r="F8" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -755,34 +759,37 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
-        <v>2600</v>
-      </c>
       <c r="F9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -790,34 +797,37 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E10" s="3">
         <v>23100</v>
       </c>
-      <c r="E10" s="3">
-        <v>14800</v>
-      </c>
       <c r="F10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4900</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,34 +1018,35 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>14700</v>
       </c>
-      <c r="E17" s="3">
-        <v>15800</v>
-      </c>
       <c r="F17" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1027,34 +1054,37 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>9800</v>
       </c>
-      <c r="E18" s="3">
-        <v>1600</v>
-      </c>
       <c r="F18" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1062,8 +1092,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,34 +1110,35 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>400</v>
-      </c>
       <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1112,34 +1146,37 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
-        <v>2100</v>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9300</v>
       </c>
       <c r="I21" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,34 +1222,37 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>10100</v>
       </c>
-      <c r="E23" s="3">
-        <v>2000</v>
-      </c>
       <c r="F23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1217,19 +1260,22 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1243,8 +1289,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,34 +1336,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>10100</v>
       </c>
-      <c r="E26" s="3">
-        <v>2000</v>
-      </c>
       <c r="F26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2600</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1322,34 +1374,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>10100</v>
       </c>
-      <c r="E27" s="3">
-        <v>2000</v>
-      </c>
       <c r="F27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2600</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1357,8 +1412,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,34 +1564,37 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>-400</v>
-      </c>
       <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1532,34 +1602,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>10100</v>
       </c>
-      <c r="E33" s="3">
-        <v>2000</v>
-      </c>
       <c r="F33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2600</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1567,8 +1640,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,34 +1678,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>10100</v>
       </c>
-      <c r="E35" s="3">
-        <v>2000</v>
-      </c>
       <c r="F35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2600</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1637,48 +1716,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,28 +1793,29 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E41" s="3">
         <v>42600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>9200</v>
       </c>
       <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>9200</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1742,26 +1829,29 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E42" s="3">
         <v>2400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>17500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>9800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,29 +1867,32 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,29 +1943,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,29 +1981,32 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E46" s="3">
         <v>47200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2019,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1937,8 +2042,8 @@
       <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1952,28 +2057,31 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E48" s="3">
         <v>800</v>
-      </c>
-      <c r="E48" s="3">
-        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1987,29 +2095,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
       </c>
       <c r="H49" s="3">
+        <v>700</v>
+      </c>
+      <c r="I49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2209,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>1500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E54" s="3">
         <v>50500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,29 +2357,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,8 +2393,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,29 +2469,32 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,8 +2507,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E72" s="3">
         <v>23800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E76" s="3">
         <v>43600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,74 +3131,80 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>10100</v>
       </c>
-      <c r="E81" s="3">
-        <v>2000</v>
-      </c>
       <c r="F81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2600</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3017,8 +3212,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,29 +3230,30 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,28 +3456,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1500</v>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>9600</v>
       </c>
       <c r="I89" s="3">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3277,8 +3494,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,25 +3512,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>300</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,28 +3624,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>-10300</v>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-11400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1500</v>
+        <v>300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3432,8 +3662,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,28 +3830,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>18900</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>600</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-900</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>-700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3622,25 +3868,28 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
@@ -3657,28 +3906,31 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>7700</v>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H102" s="3">
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>2000</v>
+        <v>7100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3690,6 +3942,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>37600</v>
+        <v>13100</v>
       </c>
       <c r="E8" s="3">
         <v>24500</v>
@@ -768,7 +768,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>35200</v>
+        <v>12100</v>
       </c>
       <c r="E10" s="3">
         <v>23100</v>
@@ -1024,8 +1024,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>12000</v>
       </c>
       <c r="E17" s="3">
         <v>14700</v>
@@ -1062,8 +1062,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>1100</v>
       </c>
       <c r="E18" s="3">
         <v>9800</v>
@@ -1116,8 +1116,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>300</v>
@@ -1231,7 +1231,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11400</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="3">
         <v>10100</v>
@@ -1268,8 +1268,8 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1344,8 +1344,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>1400</v>
       </c>
       <c r="E26" s="3">
         <v>10100</v>
@@ -1382,8 +1382,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>1400</v>
       </c>
       <c r="E27" s="3">
         <v>10100</v>
@@ -1572,8 +1572,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>-300</v>
@@ -1610,8 +1610,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>1400</v>
       </c>
       <c r="E33" s="3">
         <v>10100</v>
@@ -1686,8 +1686,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>1400</v>
       </c>
       <c r="E35" s="3">
         <v>10100</v>
@@ -1800,7 +1800,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="E41" s="3">
         <v>42600</v>
@@ -1876,7 +1876,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1400</v>
+        <v>2400</v>
       </c>
       <c r="E43" s="3">
         <v>2100</v>
@@ -1952,7 +1952,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -2028,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>500</v>
+        <v>3700</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
@@ -3182,8 +3182,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>1400</v>
       </c>
       <c r="E81" s="3">
         <v>10100</v>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E8" s="3">
         <v>13100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -762,37 +766,40 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -800,37 +807,40 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E10" s="3">
         <v>12100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>23100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4900</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,8 +1045,9 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1028,28 +1055,28 @@
         <v>12000</v>
       </c>
       <c r="E17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F17" s="3">
         <v>14700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1057,37 +1084,40 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1095,8 +1125,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,37 +1144,38 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
-      </c>
-      <c r="E20" s="3">
-        <v>300</v>
       </c>
       <c r="F20" s="3">
         <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>300</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,26 +1197,26 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>1800</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,37 +1265,40 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1263,8 +1306,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1274,11 +1320,11 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1292,8 +1338,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,37 +1388,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1377,37 +1429,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1415,8 +1470,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,37 +1634,40 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-300</v>
       </c>
       <c r="F32" s="3">
         <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1605,37 +1675,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1716,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,37 +1757,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1719,51 +1798,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,31 +1880,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E41" s="3">
         <v>29400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>9200</v>
       </c>
       <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>9200</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1832,29 +1919,32 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E42" s="3">
         <v>3700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>17500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>9800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1870,32 +1960,35 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,32 +2042,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,32 +2083,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E46" s="3">
         <v>36100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,16 +2124,19 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3700</v>
-      </c>
-      <c r="E47" s="3">
-        <v>500</v>
       </c>
       <c r="F47" s="3">
         <v>500</v>
@@ -2045,8 +2150,8 @@
       <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="J47" s="3">
+        <v>500</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2060,31 +2165,34 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E48" s="3">
         <v>9900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2098,32 +2206,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
       </c>
       <c r="I49" s="3">
+        <v>700</v>
+      </c>
+      <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2329,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>1500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E54" s="3">
         <v>50800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,32 +2488,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2396,8 +2527,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,32 +2609,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,31 +2691,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E72" s="3">
         <v>25200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>23800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E76" s="3">
         <v>47200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,80 +3323,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3215,8 +3410,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,17 +3441,17 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>200</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3470,18 +3687,18 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>7900</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9600</v>
       </c>
-      <c r="I89" s="3">
-        <v>7500</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3497,8 +3714,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,14 +3745,14 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3638,18 +3868,18 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-11400</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>300</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,8 +3895,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3844,18 +4090,18 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>18300</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
-        <v>-700</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3871,8 +4117,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3882,11 +4131,11 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>600</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
@@ -3909,8 +4158,11 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3920,18 +4172,18 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>15300</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3">
-        <v>7100</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3945,6 +4197,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>800</v>
+      </c>
+      <c r="E8" s="3">
         <v>17000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -769,40 +773,43 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -810,40 +817,43 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>15900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -851,8 +861,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +881,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +923,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1055,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,40 +1072,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>12000</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>12000</v>
       </c>
       <c r="F17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G17" s="3">
         <v>14700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1087,40 +1114,43 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1128,8 +1158,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,40 +1178,41 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>300</v>
       </c>
       <c r="G20" s="3">
         <v>300</v>
       </c>
       <c r="H20" s="3">
+        <v>300</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1186,8 +1220,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1200,26 +1237,26 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2700</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
@@ -1227,8 +1264,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,40 +1308,43 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>5600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1309,8 +1352,11 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1323,11 +1369,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1341,8 +1387,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1350,8 +1396,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,40 +1440,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2600</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1432,40 +1484,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2600</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1473,8 +1528,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1572,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1616,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1660,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,40 +1704,43 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-300</v>
       </c>
       <c r="G32" s="3">
         <v>-300</v>
       </c>
       <c r="H32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1678,40 +1748,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1719,8 +1792,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,40 +1836,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1801,54 +1880,60 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1949,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,34 +1967,35 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E41" s="3">
         <v>38700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>9200</v>
       </c>
       <c r="J41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>9200</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1922,32 +2009,35 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>1900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>17500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>9800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1700</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,35 +2053,38 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2097,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,35 +2141,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,35 +2185,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E46" s="3">
         <v>46200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>36100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>39000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,19 +2229,22 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3700</v>
-      </c>
-      <c r="F47" s="3">
-        <v>500</v>
       </c>
       <c r="G47" s="3">
         <v>500</v>
@@ -2153,8 +2258,8 @@
       <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>500</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2168,34 +2273,37 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E48" s="3">
         <v>9600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>500</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2209,35 +2317,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>700</v>
       </c>
       <c r="I49" s="3">
         <v>700</v>
       </c>
       <c r="J49" s="3">
+        <v>700</v>
+      </c>
+      <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2361,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2405,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2449,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2493,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2537,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E54" s="3">
         <v>57700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>50800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>50500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2581,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2601,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,35 +2619,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2661,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2571,35 +2705,38 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,35 +2749,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2653,8 +2793,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,16 +2837,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2720,8 +2866,8 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2735,8 +2881,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2925,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2969,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3013,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3057,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3077,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3119,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3163,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3207,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3251,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E72" s="3">
         <v>30800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>25200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>23800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3295,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3339,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3383,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3427,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E76" s="3">
         <v>52600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3471,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,86 +3515,92 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3413,8 +3608,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3628,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,11 +3643,11 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -3471,8 +3670,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3714,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3758,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3802,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3846,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +3890,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3690,15 +3907,15 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>8100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>9600</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3717,8 +3934,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,19 +3954,20 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3755,10 +3976,10 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3775,8 +3996,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4040,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4084,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,15 +4101,15 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-11800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3898,8 +4128,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4148,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4190,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4234,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4278,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4322,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4093,15 +4339,15 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>18100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-900</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4120,8 +4366,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4134,11 +4383,11 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
@@ -4161,8 +4410,11 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4175,15 +4427,15 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
-        <v>7200</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,6 +4452,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -1078,8 +1078,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
         <v>12000</v>
@@ -1122,8 +1122,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-2500</v>
       </c>
       <c r="E18" s="3">
         <v>5000</v>
@@ -1184,8 +1184,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>600</v>
@@ -1448,8 +1448,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-2400</v>
       </c>
       <c r="E26" s="3">
         <v>5600</v>
@@ -1492,8 +1492,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-2400</v>
       </c>
       <c r="E27" s="3">
         <v>5600</v>
@@ -1712,8 +1712,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-600</v>
@@ -1756,8 +1756,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-2400</v>
       </c>
       <c r="E33" s="3">
         <v>5600</v>
@@ -1844,8 +1844,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-2400</v>
       </c>
       <c r="E35" s="3">
         <v>5600</v>
@@ -2062,7 +2062,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6300</v>
+        <v>7900</v>
       </c>
       <c r="E43" s="3">
         <v>5000</v>
@@ -2150,7 +2150,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2200</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -3572,8 +3572,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-2400</v>
       </c>
       <c r="E81" s="3">
         <v>5600</v>

--- a/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>OCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,79 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,34 +745,34 @@
         <v>800</v>
       </c>
       <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
         <v>17000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -776,43 +780,46 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>-100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -820,43 +827,46 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4900</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
@@ -864,8 +874,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +895,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +940,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +987,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1034,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1058,8 +1081,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,43 +1099,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>12000</v>
       </c>
       <c r="F17" s="3">
         <v>12000</v>
       </c>
       <c r="G17" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H17" s="3">
         <v>14700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1117,43 +1144,46 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1161,8 +1191,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,43 +1212,44 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>300</v>
       </c>
       <c r="I20" s="3">
+        <v>300</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1257,11 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1240,26 +1277,26 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2700</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
@@ -1267,8 +1304,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,43 +1351,46 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1398,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1372,11 +1418,11 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1390,8 +1436,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1399,8 +1445,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,43 +1492,46 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2600</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1487,43 +1539,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2600</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1531,8 +1586,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1633,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1680,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1727,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,43 +1774,46 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-300</v>
       </c>
       <c r="I32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1751,43 +1821,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1868,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,43 +1915,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1883,57 +1962,63 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2035,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,37 +2054,38 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
         <v>17200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>38700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>9200</v>
       </c>
       <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>9200</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2012,35 +2099,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,38 +2146,41 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>7900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2193,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,38 +2240,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2287,41 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>42200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>36100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>39000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,22 +2334,25 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>500</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
@@ -2261,8 +2366,8 @@
       <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>500</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2276,37 +2381,40 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>9500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>500</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2320,38 +2428,41 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
       <c r="K49" s="3">
+        <v>700</v>
+      </c>
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,8 +2475,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2522,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2569,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,27 +2583,27 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>1500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2496,8 +2616,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,38 +2663,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E54" s="3">
         <v>53400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>50800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>50500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2710,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2731,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,38 +2750,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2664,8 +2795,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,38 +2842,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,38 +2889,41 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2936,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,19 +2983,22 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2869,8 +3015,8 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2884,8 +3030,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3077,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3124,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,38 +3171,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3060,8 +3218,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3239,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3284,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3331,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3378,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,38 +3425,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>28400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>30800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>23800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +3472,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3519,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3566,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,38 +3613,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E76" s="3">
         <v>49600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>43600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3474,8 +3660,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,92 +3707,98 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3611,8 +3806,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +3827,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3646,12 +3845,12 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3673,8 +3872,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +3919,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +3966,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4013,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4060,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4107,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3910,12 +4127,12 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>8100</v>
       </c>
-      <c r="I89" s="3">
-        <v>200</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,8 +4154,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4175,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3981,8 +4202,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3999,8 +4220,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4267,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4314,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4104,12 +4334,12 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-11800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-300</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4131,8 +4361,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4382,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4427,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4474,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4521,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4568,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4342,12 +4588,12 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>18100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-300</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4369,8 +4615,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4386,12 +4635,12 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-100</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4413,8 +4662,11 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4430,12 +4682,12 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
-        <v>-500</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4455,6 +4707,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
